--- a/portfolios/sml_equity/equity_curves/trend/Breakout_eq_curve.xlsx
+++ b/portfolios/sml_equity/equity_curves/trend/Breakout_eq_curve.xlsx
@@ -85911,16 +85911,16 @@
         <v>44186</v>
       </c>
       <c r="B5031">
-        <v>4383516.641271804</v>
+        <v>4383350.842071804</v>
       </c>
       <c r="C5031">
-        <v>3912712.516676871</v>
+        <v>3912711.323876871</v>
       </c>
       <c r="D5031">
-        <v>4383516.641271804</v>
+        <v>4383350.842071804</v>
       </c>
       <c r="E5031">
-        <v>1.1203267867466</v>
+        <v>1.120284753777492</v>
       </c>
     </row>
     <row r="5032" spans="1:5">
@@ -85928,16 +85928,16 @@
         <v>44187</v>
       </c>
       <c r="B5032">
-        <v>4437720.193571802</v>
+        <v>4437558.668571802</v>
       </c>
       <c r="C5032">
-        <v>3917182.664866033</v>
+        <v>3917180.310015673</v>
       </c>
       <c r="D5032">
-        <v>4437720.193571802</v>
+        <v>4437558.668571802</v>
       </c>
       <c r="E5032">
-        <v>1.132885691896518</v>
+        <v>1.132845137923724</v>
       </c>
     </row>
     <row r="5033" spans="1:5">
@@ -85948,13 +85948,13 @@
         <v>4481682.961671805</v>
       </c>
       <c r="C5033">
-        <v>3921214.809843217</v>
+        <v>3921212.471813217</v>
       </c>
       <c r="D5033">
         <v>4481682.961671805</v>
       </c>
       <c r="E5033">
-        <v>1.142932274564932</v>
+        <v>1.142932956040359</v>
       </c>
     </row>
     <row r="5034" spans="1:5">
@@ -85965,13 +85965,13 @@
         <v>4007554.98166392</v>
       </c>
       <c r="C5034">
-        <v>3921827.151487336</v>
+        <v>3921824.830039109</v>
       </c>
       <c r="D5034">
         <v>4007554.98166392</v>
       </c>
       <c r="E5034">
-        <v>1.021859155660155</v>
+        <v>1.021859760529885</v>
       </c>
     </row>
   </sheetData>
